--- a/biology/Botanique/Orobanche_lutea/Orobanche_lutea.xlsx
+++ b/biology/Botanique/Orobanche_lutea/Orobanche_lutea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orobanche lutea (l'Orobanche jaune parfois appelée Orobanche rouge, traduction de son synonyme Orobanche rubens Wallr.) est une espèce de plantes herbacées parasites, sans chlorophylle, de la famille des Orobanchacées. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Orobanche rubens WALLR.
 Orobanche alpigena K.KOCH.
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hauteur de 10 à 50 cm.
 </t>
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Floraison de juin à juillet. Il parasite des espèces de la famille de fabacées, surtout des luzernes (Medicago).
 </t>
@@ -606,7 +624,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses sèches mésophiles, champs de luzernes.
 </t>
@@ -637,7 +657,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe centrale et du sud, Asie de l'ouest.
 </t>
@@ -668,7 +690,9 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas encore évaluée pour la France par l'UICN, faute de données suffisantes: (DD).
 L'espèce est en régression : elle a Disparu (RE) en Franche-Comté, région Centre et Champagne-Ardennes; elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, dans la région Lorraine; elle est considérée Vulnérable (VU) en Aquitaine; elle est en Danger-critique (CR) en Bourgogne; n'est pas menacée en Alsace et Rhône-Alpes où elle est classée Espèce de préoccupation mineure (LC).
